--- a/medicine/Handicap/Shijang/Shijang.xlsx
+++ b/medicine/Handicap/Shijang/Shijang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shijang (시장) est un film sud-coréen réalisé par Lee Man-hee, sorti en 1965.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bok-nyeo, une femme ayant un handicap mental, doit prendre en charge son mari fainéant en vendant des pommes sur le marché. Son mari la quitte finalement pour une autre femme. Un homme, qui a sympathisé avec Bok-nyeo décide de tuer celui-ci.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Shijang
 Titre original : 시장
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Shin Young-kyun
 Moon Jeong-suk
@@ -619,9 +637,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu le Blue Dragon Film Award du meilleur film[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu le Blue Dragon Film Award du meilleur film.
 </t>
         </is>
       </c>
